--- a/10.10.70.56/QCLSRC_SCPLIB/QCLSRC_SCPLIB.xlsx
+++ b/10.10.70.56/QCLSRC_SCPLIB/QCLSRC_SCPLIB.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\西祺\seedswine_erickao\seedswine-as400\10.10.70.56\QCLSRC_SCPLIB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SeedsWine\SeedsWine\10.10.70.56\QCLSRC_SCPLIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA605229-40DB-45FC-ACAC-985089415F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DE1010-4928-47B8-9537-9B125D17BAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="2955" windowWidth="19005" windowHeight="12525" xr2:uid="{1DC91C45-81BB-4CCA-A515-B66D6BBB77AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1DC91C45-81BB-4CCA-A515-B66D6BBB77AA}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$E$298</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="458">
   <si>
     <t>DBR001C</t>
   </si>
@@ -1390,6 +1393,30 @@
   </si>
   <si>
     <t>已下載</t>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規格書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1457,9 +1484,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1497,7 +1524,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1603,7 +1630,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1745,7 +1772,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1753,13 +1780,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2515F8E9-CD45-46E3-AAD6-C953425C98A6}">
-  <dimension ref="A2:D298"/>
+  <dimension ref="A1:E298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="54.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1786,8 +1835,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1801,7 +1853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1814,8 +1866,11 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1829,7 +1884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1842,8 +1897,11 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1857,7 +1915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1870,8 +1928,11 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1884,8 +1945,11 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1899,7 +1963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1913,7 +1977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1941,7 +2008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1955,7 +2022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1969,7 +2036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1982,8 +2049,11 @@
       <c r="D17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1996,8 +2066,11 @@
       <c r="D18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2010,8 +2083,11 @@
       <c r="D19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2024,8 +2100,11 @@
       <c r="D20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2038,8 +2117,11 @@
       <c r="D21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2052,8 +2134,11 @@
       <c r="D22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2066,8 +2151,11 @@
       <c r="D23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2081,7 +2169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2095,7 +2183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2108,8 +2196,11 @@
       <c r="D26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2123,7 +2214,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2136,8 +2227,11 @@
       <c r="D28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2151,7 +2245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2165,7 +2259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -2179,7 +2273,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2417,7 +2511,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -2431,7 +2525,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -2445,7 +2539,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -2459,7 +2553,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -2472,8 +2566,11 @@
       <c r="D52" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -2487,7 +2584,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -2501,7 +2598,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -2515,7 +2612,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -2529,7 +2626,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -2543,7 +2640,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>84</v>
       </c>
@@ -2557,7 +2654,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>85</v>
       </c>
@@ -2571,7 +2668,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -2584,8 +2681,11 @@
       <c r="D60" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -2599,7 +2699,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -2613,7 +2713,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -2627,7 +2727,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>90</v>
       </c>
@@ -2639,6 +2739,9 @@
       </c>
       <c r="D64" t="s">
         <v>95</v>
+      </c>
+      <c r="E64" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2865,7 +2968,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -2879,7 +2982,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>123</v>
       </c>
@@ -2893,7 +2996,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>124</v>
       </c>
@@ -2907,7 +3010,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>125</v>
       </c>
@@ -2921,7 +3024,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>126</v>
       </c>
@@ -2935,7 +3038,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>127</v>
       </c>
@@ -2949,7 +3052,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>128</v>
       </c>
@@ -2963,7 +3066,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>129</v>
       </c>
@@ -2977,7 +3080,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>130</v>
       </c>
@@ -2991,7 +3094,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>136</v>
       </c>
@@ -3005,7 +3108,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>137</v>
       </c>
@@ -3018,8 +3121,11 @@
       <c r="D91" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>138</v>
       </c>
@@ -3033,7 +3139,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>139</v>
       </c>
@@ -3047,7 +3153,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>140</v>
       </c>
@@ -3061,7 +3167,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>141</v>
       </c>
@@ -3075,7 +3181,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>142</v>
       </c>
@@ -3089,7 +3195,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>143</v>
       </c>
@@ -3103,7 +3209,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -3117,7 +3223,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>148</v>
       </c>
@@ -3131,7 +3237,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>149</v>
       </c>
@@ -3145,7 +3251,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>150</v>
       </c>
@@ -3159,7 +3265,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>151</v>
       </c>
@@ -3173,7 +3279,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>152</v>
       </c>
@@ -3187,7 +3293,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>153</v>
       </c>
@@ -3201,7 +3307,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>154</v>
       </c>
@@ -3215,7 +3321,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>160</v>
       </c>
@@ -3229,7 +3335,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>161</v>
       </c>
@@ -3243,7 +3349,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>162</v>
       </c>
@@ -3256,8 +3362,11 @@
       <c r="D108" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>163</v>
       </c>
@@ -3271,7 +3380,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>164</v>
       </c>
@@ -3285,7 +3394,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>165</v>
       </c>
@@ -3299,7 +3408,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>166</v>
       </c>
@@ -3313,7 +3422,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -3327,7 +3436,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>172</v>
       </c>
@@ -3341,7 +3450,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>173</v>
       </c>
@@ -3355,7 +3464,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>174</v>
       </c>
@@ -3369,7 +3478,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>175</v>
       </c>
@@ -3383,7 +3492,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>176</v>
       </c>
@@ -3397,7 +3506,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>177</v>
       </c>
@@ -3410,8 +3519,11 @@
       <c r="D119" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>178</v>
       </c>
@@ -3425,7 +3537,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>179</v>
       </c>
@@ -3438,8 +3550,11 @@
       <c r="D121" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>186</v>
       </c>
@@ -3452,8 +3567,11 @@
       <c r="D122" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>187</v>
       </c>
@@ -3467,7 +3585,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>188</v>
       </c>
@@ -3481,7 +3599,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>189</v>
       </c>
@@ -3495,7 +3613,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>190</v>
       </c>
@@ -3508,8 +3626,11 @@
       <c r="D126" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>191</v>
       </c>
@@ -3523,7 +3644,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>192</v>
       </c>
@@ -3537,7 +3658,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>193</v>
       </c>
@@ -3550,8 +3671,11 @@
       <c r="D129" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>197</v>
       </c>
@@ -3564,8 +3688,11 @@
       <c r="D130" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>198</v>
       </c>
@@ -3579,7 +3706,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>199</v>
       </c>
@@ -3592,8 +3719,11 @@
       <c r="D132" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>200</v>
       </c>
@@ -3606,8 +3736,11 @@
       <c r="D133" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>201</v>
       </c>
@@ -3621,7 +3754,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>202</v>
       </c>
@@ -3635,7 +3768,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>203</v>
       </c>
@@ -3648,8 +3781,11 @@
       <c r="D136" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>204</v>
       </c>
@@ -3663,7 +3799,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>208</v>
       </c>
@@ -3677,7 +3813,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>209</v>
       </c>
@@ -3691,7 +3827,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>210</v>
       </c>
@@ -3705,7 +3841,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>211</v>
       </c>
@@ -3719,7 +3855,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>212</v>
       </c>
@@ -3732,8 +3868,11 @@
       <c r="D142" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>213</v>
       </c>
@@ -3747,7 +3886,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>214</v>
       </c>
@@ -3761,7 +3900,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>215</v>
       </c>
@@ -3775,7 +3914,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>220</v>
       </c>
@@ -3789,7 +3928,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>221</v>
       </c>
@@ -3803,7 +3942,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>222</v>
       </c>
@@ -3817,7 +3956,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>223</v>
       </c>
@@ -3831,7 +3970,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>224</v>
       </c>
@@ -3845,7 +3984,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>225</v>
       </c>
@@ -3859,7 +3998,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>226</v>
       </c>
@@ -3873,7 +4012,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>227</v>
       </c>
@@ -3887,7 +4026,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>233</v>
       </c>
@@ -3900,8 +4039,11 @@
       <c r="D154" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>234</v>
       </c>
@@ -3914,8 +4056,11 @@
       <c r="D155" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>235</v>
       </c>
@@ -3929,7 +4074,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>236</v>
       </c>
@@ -3943,7 +4088,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>237</v>
       </c>
@@ -3956,8 +4101,11 @@
       <c r="D158" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>238</v>
       </c>
@@ -3971,7 +4119,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>239</v>
       </c>
@@ -3985,7 +4133,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>240</v>
       </c>
@@ -3999,7 +4147,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>242</v>
       </c>
@@ -4013,7 +4161,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>243</v>
       </c>
@@ -4027,7 +4175,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>244</v>
       </c>
@@ -4041,7 +4189,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>245</v>
       </c>
@@ -4055,7 +4203,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>246</v>
       </c>
@@ -4069,7 +4217,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>247</v>
       </c>
@@ -4082,8 +4230,11 @@
       <c r="D167" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>248</v>
       </c>
@@ -4096,8 +4247,11 @@
       <c r="D168" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>249</v>
       </c>
@@ -4110,8 +4264,11 @@
       <c r="D169" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>253</v>
       </c>
@@ -4124,8 +4281,11 @@
       <c r="D170" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>254</v>
       </c>
@@ -4138,8 +4298,11 @@
       <c r="D171" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>255</v>
       </c>
@@ -4153,7 +4316,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>256</v>
       </c>
@@ -4167,7 +4330,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>257</v>
       </c>
@@ -4181,7 +4344,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>258</v>
       </c>
@@ -4195,7 +4358,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>259</v>
       </c>
@@ -4209,7 +4372,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>260</v>
       </c>
@@ -4223,7 +4386,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>266</v>
       </c>
@@ -4237,7 +4400,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>267</v>
       </c>
@@ -4250,8 +4413,11 @@
       <c r="D179" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>268</v>
       </c>
@@ -4264,8 +4430,11 @@
       <c r="D180" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>269</v>
       </c>
@@ -4278,8 +4447,11 @@
       <c r="D181" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>270</v>
       </c>
@@ -4292,8 +4464,11 @@
       <c r="D182" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>271</v>
       </c>
@@ -4306,8 +4481,11 @@
       <c r="D183" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>272</v>
       </c>
@@ -4321,7 +4499,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>273</v>
       </c>
@@ -4335,7 +4513,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>276</v>
       </c>
@@ -4349,7 +4527,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>277</v>
       </c>
@@ -4363,7 +4541,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>278</v>
       </c>
@@ -4377,7 +4555,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>279</v>
       </c>
@@ -4391,7 +4569,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>280</v>
       </c>
@@ -4405,7 +4583,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>281</v>
       </c>
@@ -4419,7 +4597,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>282</v>
       </c>
@@ -4433,7 +4611,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>283</v>
       </c>
@@ -4447,7 +4625,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>289</v>
       </c>
@@ -4461,7 +4639,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>290</v>
       </c>
@@ -4475,7 +4653,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>291</v>
       </c>
@@ -4489,7 +4667,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>292</v>
       </c>
@@ -4503,7 +4681,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>293</v>
       </c>
@@ -4517,7 +4695,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>294</v>
       </c>
@@ -4531,7 +4709,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>295</v>
       </c>
@@ -4545,7 +4723,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>296</v>
       </c>
@@ -4559,7 +4737,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>303</v>
       </c>
@@ -4573,7 +4751,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>304</v>
       </c>
@@ -4586,8 +4764,11 @@
       <c r="D203" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>305</v>
       </c>
@@ -4601,7 +4782,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>306</v>
       </c>
@@ -4615,7 +4796,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>307</v>
       </c>
@@ -4629,7 +4810,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>308</v>
       </c>
@@ -4643,7 +4824,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>309</v>
       </c>
@@ -4657,7 +4838,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>310</v>
       </c>
@@ -4671,7 +4852,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>317</v>
       </c>
@@ -4685,7 +4866,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>318</v>
       </c>
@@ -4699,7 +4880,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>319</v>
       </c>
@@ -4713,7 +4894,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>320</v>
       </c>
@@ -4727,7 +4908,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>321</v>
       </c>
@@ -4741,7 +4922,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>322</v>
       </c>
@@ -4755,7 +4936,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>323</v>
       </c>
@@ -4769,7 +4950,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>324</v>
       </c>
@@ -4783,7 +4964,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>330</v>
       </c>
@@ -4797,7 +4978,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>331</v>
       </c>
@@ -4811,7 +4992,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>332</v>
       </c>
@@ -4824,8 +5005,11 @@
       <c r="D220" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>333</v>
       </c>
@@ -4839,7 +5023,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>334</v>
       </c>
@@ -4852,8 +5036,11 @@
       <c r="D222" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>335</v>
       </c>
@@ -4867,7 +5054,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>336</v>
       </c>
@@ -4880,8 +5067,11 @@
       <c r="D224" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>337</v>
       </c>
@@ -4895,7 +5085,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>342</v>
       </c>
@@ -4908,8 +5098,11 @@
       <c r="D226" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>343</v>
       </c>
@@ -4923,7 +5116,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>344</v>
       </c>
@@ -4937,7 +5130,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>345</v>
       </c>
@@ -4951,7 +5144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>346</v>
       </c>
@@ -4965,7 +5158,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>347</v>
       </c>
@@ -4976,7 +5169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>348</v>
       </c>
@@ -4990,7 +5183,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>349</v>
       </c>
@@ -5004,7 +5197,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>355</v>
       </c>
@@ -5018,7 +5211,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>356</v>
       </c>
@@ -5032,7 +5225,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>357</v>
       </c>
@@ -5046,7 +5239,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>358</v>
       </c>
@@ -5060,7 +5253,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>359</v>
       </c>
@@ -5074,7 +5267,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>360</v>
       </c>
@@ -5088,7 +5281,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>361</v>
       </c>
@@ -5326,7 +5519,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>388</v>
       </c>
@@ -5340,7 +5533,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>393</v>
       </c>
@@ -5351,7 +5544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>394</v>
       </c>
@@ -5365,7 +5558,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>395</v>
       </c>
@@ -5378,8 +5571,11 @@
       <c r="D260" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>396</v>
       </c>
@@ -5392,8 +5588,11 @@
       <c r="D261" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>397</v>
       </c>
@@ -5407,7 +5606,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>398</v>
       </c>
@@ -5420,8 +5619,11 @@
       <c r="D263" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>399</v>
       </c>
@@ -5434,8 +5636,11 @@
       <c r="D264" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>400</v>
       </c>
@@ -5449,7 +5654,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>401</v>
       </c>
@@ -5462,8 +5667,11 @@
       <c r="D266" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>402</v>
       </c>
@@ -5477,7 +5685,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>403</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="D268" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>404</v>
       </c>
@@ -5505,7 +5716,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>405</v>
       </c>
@@ -5518,8 +5729,11 @@
       <c r="D270" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>406</v>
       </c>
@@ -5533,7 +5747,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>407</v>
       </c>
@@ -5546,8 +5760,11 @@
       <c r="D272" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>408</v>
       </c>
@@ -5561,7 +5778,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>414</v>
       </c>
@@ -5574,8 +5791,11 @@
       <c r="D274" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>415</v>
       </c>
@@ -5589,7 +5809,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>416</v>
       </c>
@@ -5602,8 +5822,11 @@
       <c r="D276" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>417</v>
       </c>
@@ -5617,7 +5840,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>418</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="D278" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>419</v>
       </c>
@@ -5645,7 +5871,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>420</v>
       </c>
@@ -5658,8 +5884,11 @@
       <c r="D280" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>421</v>
       </c>
@@ -5673,7 +5902,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>426</v>
       </c>
@@ -5686,8 +5915,11 @@
       <c r="D282" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>427</v>
       </c>
@@ -5700,8 +5932,11 @@
       <c r="D283" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>428</v>
       </c>
@@ -5715,7 +5950,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>429</v>
       </c>
@@ -5728,8 +5963,11 @@
       <c r="D285" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>430</v>
       </c>
@@ -5742,8 +5980,11 @@
       <c r="D286" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>431</v>
       </c>
@@ -5757,7 +5998,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>432</v>
       </c>
@@ -5770,8 +6011,11 @@
       <c r="D288" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>433</v>
       </c>
@@ -5785,7 +6029,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>437</v>
       </c>
@@ -5798,8 +6042,11 @@
       <c r="D290" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>438</v>
       </c>
@@ -5813,7 +6060,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>439</v>
       </c>
@@ -5823,8 +6070,11 @@
       <c r="C292" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>440</v>
       </c>
@@ -5835,7 +6085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>441</v>
       </c>
@@ -5845,8 +6095,11 @@
       <c r="C294" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>442</v>
       </c>
@@ -5857,7 +6110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>443</v>
       </c>
@@ -5867,8 +6120,11 @@
       <c r="C296" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>444</v>
       </c>
@@ -5879,7 +6135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>449</v>
       </c>
@@ -5891,6 +6147,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E298" xr:uid="{2515F8E9-CD45-46E3-AAD6-C953425C98A6}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
